--- a/biosample-individual-age-at-collection.xlsx
+++ b/biosample-individual-age-at-collection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Path</t>
   </si>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
 </sst>
 </file>
@@ -828,7 +832,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -1030,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>64</v>
